--- a/docs/Sudah Registrasi.xlsx
+++ b/docs/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\02_SNBT\23snbt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD8CF69-3D67-4902-8D6D-82D0BCC6592C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BE4169-AACC-4653-B31D-DF23A7D9AD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:C4001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>233410020787</v>
+        <v>231910050561</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>233230140660</v>
+        <v>233110010179</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -513,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>233210220429</v>
+        <v>233110040186</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -524,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>233240010005</v>
+        <v>233110040691</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>233111120563</v>
+        <v>233110040945</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>233320071175</v>
+        <v>233110060917</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>233110040691</v>
+        <v>233110070666</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -568,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>233340180223</v>
+        <v>233110070739</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -579,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>233210200098</v>
+        <v>233110110746</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -590,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>233240080445</v>
+        <v>233110130888</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -601,7 +601,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>231910050561</v>
+        <v>233110160714</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>233210150789</v>
+        <v>233111090198</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -623,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>233210020012</v>
+        <v>233111100608</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -634,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>233110070739</v>
+        <v>233111110828</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -644,6 +644,9 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
+      <c r="B16" s="1">
+        <v>233111120563</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
@@ -652,6 +655,9 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
+      <c r="B17" s="1">
+        <v>233111120635</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
@@ -660,6 +666,9 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
+      <c r="B18" s="1">
+        <v>233111270886</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
@@ -668,6 +677,9 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
+      <c r="B19" s="1">
+        <v>233210010695</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
@@ -676,6 +688,9 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
+      <c r="B20" s="1">
+        <v>233210020012</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
@@ -684,6 +699,9 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
+      <c r="B21" s="1">
+        <v>233210150789</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
@@ -692,6 +710,9 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
+      <c r="B22" s="1">
+        <v>233210171860</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
@@ -700,6 +721,9 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
+      <c r="B23" s="1">
+        <v>233210200098</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
@@ -708,6 +732,9 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
+      <c r="B24" s="1">
+        <v>233210220429</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
@@ -716,6 +743,9 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
+      <c r="B25" s="1">
+        <v>233230140660</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
@@ -724,6 +754,9 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
+      <c r="B26" s="1">
+        <v>233240010005</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
@@ -732,6 +765,9 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
+      <c r="B27" s="1">
+        <v>233240080445</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
@@ -740,6 +776,9 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
+      <c r="B28" s="1">
+        <v>233240120288</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
@@ -748,6 +787,9 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
+      <c r="B29" s="1">
+        <v>233310040080</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
@@ -756,6 +798,9 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
+      <c r="B30" s="1">
+        <v>233320071175</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
@@ -764,6 +809,9 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
+      <c r="B31" s="1">
+        <v>233340180223</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
@@ -772,6 +820,9 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
+      <c r="B32" s="1">
+        <v>233345090006</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
@@ -779,6 +830,9 @@
     <row r="33" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>233410020787</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
